--- a/BEV03S.xlsx
+++ b/BEV03S.xlsx
@@ -11,27 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="399">
   <si>
     <t/>
   </si>
   <si>
+    <t>10000772</t>
+  </si>
+  <si>
+    <t>MARJAN MELON 460ML</t>
+  </si>
+  <si>
+    <t>BEV03S</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
     <t>10000704</t>
   </si>
   <si>
     <t>MARJAN COCOPDN 460ML</t>
   </si>
   <si>
-    <t>BEV03S</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
   </si>
   <si>
     <t>10036619</t>
@@ -1594,7 +1600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F184"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1638,18 +1644,18 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -1658,18 +1664,18 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1678,18 +1684,18 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1698,18 +1704,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1718,18 +1724,18 @@
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1738,18 +1744,18 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1758,18 +1764,18 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1778,18 +1784,18 @@
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1798,18 +1804,18 @@
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1818,30 +1824,30 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,13 +1901,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,13 +1921,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,13 +1941,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,13 +1961,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,13 +2001,13 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2035,13 +2041,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,13 +2061,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,13 +2081,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,13 +2101,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,13 +2121,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,73 +2141,73 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,13 +2221,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2235,13 +2241,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,13 +2261,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,13 +2281,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,13 +2301,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,13 +2321,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,13 +2341,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,13 +2361,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,13 +2381,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,13 +2401,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,13 +2421,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,53 +2441,53 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,13 +2501,13 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,13 +2521,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,13 +2541,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,13 +2561,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,33 +2581,33 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,13 +2621,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,13 +2641,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,13 +2661,13 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,13 +2681,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,13 +2701,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,13 +2721,13 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,13 +2741,13 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,13 +2761,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,13 +2781,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,13 +2801,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,13 +2821,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,13 +2841,13 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,13 +2861,13 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,13 +2881,13 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,13 +2901,13 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,13 +2921,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,13 +2941,13 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,13 +2961,13 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,13 +2981,13 @@
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,13 +3001,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,13 +3021,13 @@
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,13 +3041,13 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,13 +3061,13 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,13 +3081,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,13 +3101,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,13 +3121,13 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,13 +3141,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,13 +3161,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,13 +3181,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,13 +3201,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,13 +3221,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,13 +3241,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,13 +3261,13 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,13 +3281,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,13 +3301,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,13 +3321,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,13 +3341,13 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,13 +3361,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,13 +3381,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,13 +3401,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,13 +3421,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,13 +3441,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,13 +3461,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,13 +3481,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,13 +3501,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,13 +3521,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,13 +3541,13 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,13 +3561,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3575,13 +3581,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,13 +3601,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,13 +3621,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3635,13 +3641,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,13 +3661,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,13 +3681,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,13 +3701,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,13 +3721,13 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,13 +3741,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,13 +3761,13 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,13 +3781,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,13 +3801,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,13 +3821,13 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,13 +3841,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3881,13 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,13 +3901,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,13 +3921,13 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,13 +3941,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,13 +3961,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,13 +3981,13 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,13 +4001,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4021,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,13 +4041,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,13 +4061,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,33 +4081,33 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>268</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,13 +4121,13 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4135,13 +4141,13 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +4161,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,13 +4181,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4195,13 +4201,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,13 +4221,13 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,13 +4241,13 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4255,13 +4261,13 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,13 +4281,13 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,13 +4301,13 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,13 +4321,13 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>268</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,13 +4341,13 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,13 +4361,13 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>32</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,13 +4381,13 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,13 +4401,13 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,13 +4421,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4435,13 +4441,13 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,13 +4461,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,13 +4481,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4495,13 +4501,13 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4515,13 +4521,13 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4535,13 +4541,13 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4555,13 +4561,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,13 +4581,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4595,13 +4601,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4615,13 +4621,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4635,13 +4641,13 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4655,13 +4661,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,33 +4681,33 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>329</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4715,13 +4721,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4735,13 +4741,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4755,13 +4761,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4775,13 +4781,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4795,13 +4801,13 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4815,13 +4821,13 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,13 +4841,13 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,33 +4861,33 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>348</v>
+        <v>106</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4895,13 +4901,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4915,13 +4921,13 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,13 +4941,13 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>268</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4955,33 +4961,33 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="E169" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4995,93 +5001,93 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>364</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E174" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,13 +5101,13 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5115,13 +5121,13 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5135,13 +5141,13 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5155,73 +5161,73 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5235,13 +5241,13 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5255,13 +5261,33 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>117</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/BEV03S.xlsx
+++ b/BEV03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="401">
   <si>
     <t/>
   </si>
@@ -725,6 +725,12 @@
   </si>
   <si>
     <t>SOSRO TEH KOTAK B250</t>
+  </si>
+  <si>
+    <t>20001119</t>
+  </si>
+  <si>
+    <t>SOSRO TEH KOTAK 4+2S</t>
   </si>
   <si>
     <t>20114495</t>
@@ -1600,7 +1606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F185"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3804,10 +3810,10 @@
         <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,7 +3830,7 @@
         <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>119</v>
@@ -3844,7 +3850,7 @@
         <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>119</v>
@@ -3864,10 +3870,10 @@
         <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,7 +3890,7 @@
         <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>34</v>
@@ -3904,10 +3910,10 @@
         <v>37</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3941,13 +3947,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,7 +3970,7 @@
         <v>70</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>34</v>
@@ -3984,7 +3990,7 @@
         <v>70</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>34</v>
@@ -4004,7 +4010,7 @@
         <v>70</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>34</v>
@@ -4024,7 +4030,7 @@
         <v>70</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>34</v>
@@ -4044,7 +4050,7 @@
         <v>70</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>34</v>
@@ -4064,7 +4070,7 @@
         <v>70</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>34</v>
@@ -4084,7 +4090,7 @@
         <v>70</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>34</v>
@@ -4104,18 +4110,18 @@
         <v>70</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -4124,10 +4130,10 @@
         <v>70</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,10 +4150,10 @@
         <v>70</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,10 +4170,10 @@
         <v>70</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4181,13 +4187,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,7 +4210,7 @@
         <v>73</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>119</v>
@@ -4224,10 +4230,10 @@
         <v>73</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,7 +4250,7 @@
         <v>73</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>34</v>
@@ -4264,10 +4270,10 @@
         <v>73</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,10 +4290,10 @@
         <v>73</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4304,10 +4310,10 @@
         <v>73</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,7 +4330,7 @@
         <v>73</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>119</v>
@@ -4344,10 +4350,10 @@
         <v>73</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>270</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4364,10 +4370,10 @@
         <v>73</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,10 +4390,10 @@
         <v>73</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,7 +4410,7 @@
         <v>73</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>34</v>
@@ -4424,7 +4430,7 @@
         <v>73</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>34</v>
@@ -4441,13 +4447,13 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4464,10 +4470,10 @@
         <v>103</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,7 +4490,7 @@
         <v>103</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>34</v>
@@ -4504,10 +4510,10 @@
         <v>103</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,7 +4530,7 @@
         <v>103</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>12</v>
@@ -4544,7 +4550,7 @@
         <v>103</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>12</v>
@@ -4564,7 +4570,7 @@
         <v>103</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
@@ -4584,10 +4590,10 @@
         <v>103</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4604,7 +4610,7 @@
         <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5</v>
@@ -4624,7 +4630,7 @@
         <v>103</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>5</v>
@@ -4644,7 +4650,7 @@
         <v>103</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4664,7 +4670,7 @@
         <v>103</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4684,10 +4690,10 @@
         <v>103</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4704,30 +4710,30 @@
         <v>103</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,7 +4750,7 @@
         <v>106</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>34</v>
@@ -4764,7 +4770,7 @@
         <v>106</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>34</v>
@@ -4784,7 +4790,7 @@
         <v>106</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>34</v>
@@ -4804,10 +4810,10 @@
         <v>106</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,7 +4830,7 @@
         <v>106</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>12</v>
@@ -4844,10 +4850,10 @@
         <v>106</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,7 +4870,7 @@
         <v>106</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -4881,33 +4887,33 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="E165" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4921,10 +4927,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>34</v>
@@ -4941,10 +4947,10 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>34</v>
@@ -4961,13 +4967,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>270</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4981,33 +4987,33 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E170" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5021,93 +5027,93 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>34</v>
+        <v>368</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5121,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>34</v>
@@ -5141,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>34</v>
@@ -5161,13 +5167,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5181,73 +5187,73 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>389</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,13 +5267,13 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5281,12 +5287,32 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F185" s="1" t="s">
         <v>119</v>
       </c>
     </row>

--- a/BEV03S.xlsx
+++ b/BEV03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="404">
   <si>
     <t/>
   </si>
@@ -695,6 +695,15 @@
   </si>
   <si>
     <t>FLORIDINA ORANGE 350</t>
+  </si>
+  <si>
+    <t>20141101</t>
+  </si>
+  <si>
+    <t>IDM AIR MNM BTL 4+2</t>
+  </si>
+  <si>
+    <t>,(E-1B)</t>
   </si>
   <si>
     <t>20026226</t>
@@ -1606,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F186"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3707,21 +3716,21 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3730,7 +3739,7 @@
         <v>37</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>34</v>
@@ -3738,10 +3747,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -3750,7 +3759,7 @@
         <v>37</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>34</v>
@@ -3758,10 +3767,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -3770,7 +3779,7 @@
         <v>37</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>34</v>
@@ -3778,10 +3787,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3790,7 +3799,7 @@
         <v>37</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>34</v>
@@ -3798,10 +3807,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -3810,7 +3819,7 @@
         <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>34</v>
@@ -3818,10 +3827,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -3830,18 +3839,18 @@
         <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -3850,7 +3859,7 @@
         <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>119</v>
@@ -3858,10 +3867,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3870,7 +3879,7 @@
         <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>119</v>
@@ -3878,10 +3887,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -3890,18 +3899,18 @@
         <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -3910,7 +3919,7 @@
         <v>37</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>34</v>
@@ -3918,10 +3927,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -3930,18 +3939,18 @@
         <v>37</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -3950,7 +3959,7 @@
         <v>37</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -3958,30 +3967,30 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -3990,7 +3999,7 @@
         <v>70</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>34</v>
@@ -3998,10 +4007,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -4010,7 +4019,7 @@
         <v>70</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>34</v>
@@ -4018,10 +4027,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -4030,7 +4039,7 @@
         <v>70</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>34</v>
@@ -4038,10 +4047,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
@@ -4050,7 +4059,7 @@
         <v>70</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>34</v>
@@ -4058,10 +4067,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -4070,7 +4079,7 @@
         <v>70</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>34</v>
@@ -4078,10 +4087,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -4090,7 +4099,7 @@
         <v>70</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>34</v>
@@ -4098,10 +4107,10 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -4110,7 +4119,7 @@
         <v>70</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>34</v>
@@ -4118,10 +4127,10 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -4130,10 +4139,10 @@
         <v>70</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,18 +4159,18 @@
         <v>70</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -4170,18 +4179,18 @@
         <v>70</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -4190,38 +4199,38 @@
         <v>70</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -4230,7 +4239,7 @@
         <v>73</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>119</v>
@@ -4238,10 +4247,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -4250,18 +4259,18 @@
         <v>73</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -4270,7 +4279,7 @@
         <v>73</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>34</v>
@@ -4278,10 +4287,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
@@ -4290,18 +4299,18 @@
         <v>73</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
@@ -4310,18 +4319,18 @@
         <v>73</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
@@ -4330,18 +4339,18 @@
         <v>73</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
@@ -4350,7 +4359,7 @@
         <v>73</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>119</v>
@@ -4358,10 +4367,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
@@ -4370,18 +4379,18 @@
         <v>73</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>272</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -4390,18 +4399,18 @@
         <v>73</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -4410,18 +4419,18 @@
         <v>73</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>34</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
@@ -4430,7 +4439,7 @@
         <v>73</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>34</v>
@@ -4438,10 +4447,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
@@ -4450,7 +4459,7 @@
         <v>73</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>34</v>
@@ -4458,30 +4467,30 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
@@ -4490,18 +4499,18 @@
         <v>103</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
@@ -4510,7 +4519,7 @@
         <v>103</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>34</v>
@@ -4518,10 +4527,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
@@ -4530,18 +4539,18 @@
         <v>103</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
@@ -4550,7 +4559,7 @@
         <v>103</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>12</v>
@@ -4558,10 +4567,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
@@ -4570,7 +4579,7 @@
         <v>103</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
@@ -4578,10 +4587,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
@@ -4590,7 +4599,7 @@
         <v>103</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>12</v>
@@ -4598,10 +4607,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
@@ -4610,18 +4619,18 @@
         <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
@@ -4630,7 +4639,7 @@
         <v>103</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>5</v>
@@ -4638,10 +4647,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
@@ -4650,7 +4659,7 @@
         <v>103</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4658,10 +4667,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
@@ -4670,7 +4679,7 @@
         <v>103</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4678,10 +4687,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
@@ -4690,7 +4699,7 @@
         <v>103</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4698,10 +4707,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
@@ -4710,18 +4719,18 @@
         <v>103</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
@@ -4730,10 +4739,10 @@
         <v>103</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>333</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4747,21 +4756,21 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
@@ -4770,7 +4779,7 @@
         <v>106</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>34</v>
@@ -4778,10 +4787,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
@@ -4790,7 +4799,7 @@
         <v>106</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>34</v>
@@ -4798,10 +4807,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
@@ -4810,7 +4819,7 @@
         <v>106</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>34</v>
@@ -4818,10 +4827,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
@@ -4830,18 +4839,18 @@
         <v>106</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
@@ -4850,7 +4859,7 @@
         <v>106</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>12</v>
@@ -4858,10 +4867,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
@@ -4870,18 +4879,18 @@
         <v>106</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
@@ -4890,7 +4899,7 @@
         <v>106</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
@@ -4898,22 +4907,22 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4927,30 +4936,30 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>34</v>
@@ -4958,19 +4967,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>34</v>
@@ -4978,42 +4987,42 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>272</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5027,33 +5036,33 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5067,13 +5076,13 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5093,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5113,7 +5122,7 @@
         <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5127,30 +5136,30 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>34</v>
+        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>34</v>
@@ -5158,19 +5167,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>34</v>
@@ -5178,42 +5187,42 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5227,13 +5236,13 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5247,10 +5256,10 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>394</v>
@@ -5267,52 +5276,72 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F186" s="1" t="s">
         <v>119</v>
       </c>
     </row>

--- a/BEV03S.xlsx
+++ b/BEV03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="406">
   <si>
     <t/>
   </si>
@@ -373,6 +373,12 @@
     <t>RT,(E-2B)</t>
   </si>
   <si>
+    <t>20134048</t>
+  </si>
+  <si>
+    <t>HILO PRTEIN CHOCO190</t>
+  </si>
+  <si>
     <t>20053799</t>
   </si>
   <si>
@@ -649,292 +655,292 @@
     <t>POP ICE MANGO 5'S</t>
   </si>
   <si>
+    <t>10003389</t>
+  </si>
+  <si>
+    <t>KIRANTI SEHAT BLN150</t>
+  </si>
+  <si>
+    <t>20029054</t>
+  </si>
+  <si>
+    <t>KIRANTI JUICE 150ML</t>
+  </si>
+  <si>
+    <t>20137228</t>
+  </si>
+  <si>
+    <t>KIRANTI LYCHEE 150ML</t>
+  </si>
+  <si>
+    <t>20137229</t>
+  </si>
+  <si>
+    <t>KIRANTI BERRY 150ML</t>
+  </si>
+  <si>
+    <t>20125638</t>
+  </si>
+  <si>
+    <t>NTRSARI JRK PRS 10'S</t>
+  </si>
+  <si>
+    <t>20113377</t>
+  </si>
+  <si>
+    <t>FLRDINA COCO BIT 350</t>
+  </si>
+  <si>
+    <t>20043877</t>
+  </si>
+  <si>
+    <t>FLORIDINA ORANGE 350</t>
+  </si>
+  <si>
+    <t>20141101</t>
+  </si>
+  <si>
+    <t>IDM AIR MNM BTL 4+2</t>
+  </si>
+  <si>
+    <t>,(E-1B)</t>
+  </si>
+  <si>
+    <t>20026226</t>
+  </si>
+  <si>
+    <t>ULTRA TEH KOTAK 500</t>
+  </si>
+  <si>
+    <t>10036640</t>
+  </si>
+  <si>
+    <t>TEH KOTAK JASMINE300</t>
+  </si>
+  <si>
+    <t>20048435</t>
+  </si>
+  <si>
+    <t>TEH KOTAK LESS/S 300</t>
+  </si>
+  <si>
+    <t>20044334</t>
+  </si>
+  <si>
+    <t>SOSRO TEH BTL TPK300</t>
+  </si>
+  <si>
+    <t>10005128</t>
+  </si>
+  <si>
+    <t>SOSRO TEH KOTAK B250</t>
+  </si>
+  <si>
+    <t>20001119</t>
+  </si>
+  <si>
+    <t>SOSRO TEH KOTAK 4+2S</t>
+  </si>
+  <si>
+    <t>20114495</t>
+  </si>
+  <si>
+    <t>NESCAFE CPUCCINO 220</t>
+  </si>
+  <si>
+    <t>20114493</t>
+  </si>
+  <si>
+    <t>NESCAFE LATTE 220ML</t>
+  </si>
+  <si>
+    <t>20121456</t>
+  </si>
+  <si>
+    <t>NSCAFE ICE BLACK 220</t>
+  </si>
+  <si>
+    <t>20123322</t>
+  </si>
+  <si>
+    <t>GOLDA CAPPUCCINO 200</t>
+  </si>
+  <si>
+    <t>20087542</t>
+  </si>
+  <si>
+    <t>GOLDA COFF.DOLCE 200</t>
+  </si>
+  <si>
+    <t>20102789</t>
+  </si>
+  <si>
+    <t>ABC CHOCMLT COFF 200</t>
+  </si>
+  <si>
+    <t>20102790</t>
+  </si>
+  <si>
+    <t>ABC MILK COFFEE 200</t>
+  </si>
+  <si>
+    <t>20036157</t>
+  </si>
+  <si>
+    <t>SOSRO TEH BOTOL 450</t>
+  </si>
+  <si>
+    <t>20037565</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH MLATI500</t>
+  </si>
+  <si>
+    <t>20048155</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH L/SGR350</t>
+  </si>
+  <si>
+    <t>20035484</t>
+  </si>
+  <si>
+    <t>PUCUK/H TEH MLATI350</t>
+  </si>
+  <si>
+    <t>20072249</t>
+  </si>
+  <si>
+    <t>SOSRO TEH BOTOL 350</t>
+  </si>
+  <si>
+    <t>20066455</t>
+  </si>
+  <si>
+    <t>FRUIT TEA APPLE 350</t>
+  </si>
+  <si>
+    <t>20066454</t>
+  </si>
+  <si>
+    <t>FRUIT TEA BLCKCR 350</t>
+  </si>
+  <si>
+    <t>20073495</t>
+  </si>
+  <si>
+    <t>FRUIT TEA FREEZE 350</t>
+  </si>
+  <si>
+    <t>20130354</t>
+  </si>
+  <si>
+    <t>LARISST JSMN TEA 350</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20060210</t>
+  </si>
+  <si>
+    <t>IDM TEH HJAU MLT 330</t>
+  </si>
+  <si>
+    <t>20077509</t>
+  </si>
+  <si>
+    <t>IDM LEMON TEA 330ML</t>
+  </si>
+  <si>
+    <t>20101897</t>
+  </si>
+  <si>
+    <t>IDM TEH APEL 350ML</t>
+  </si>
+  <si>
+    <t>20015838</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 350ML</t>
+  </si>
+  <si>
+    <t>20009722</t>
+  </si>
+  <si>
+    <t>POCARI SWEAT 500ML</t>
+  </si>
+  <si>
+    <t>20019674</t>
+  </si>
+  <si>
+    <t>YOU C1000 ORG WTR500</t>
+  </si>
+  <si>
+    <t>20019673</t>
+  </si>
+  <si>
+    <t>YOU C1000 LMN WTR500</t>
+  </si>
+  <si>
+    <t>20127835</t>
+  </si>
+  <si>
+    <t>ALANG SARI JN 300ML</t>
+  </si>
+  <si>
+    <t>20053540</t>
+  </si>
+  <si>
+    <t>ADEM SARI CK BTL 350</t>
+  </si>
+  <si>
+    <t>20057867</t>
+  </si>
+  <si>
+    <t>HYDRO COCO 500ML</t>
+  </si>
+  <si>
+    <t>20018435</t>
+  </si>
+  <si>
+    <t>HYDRO COCO 250ML</t>
+  </si>
+  <si>
+    <t>20115548</t>
+  </si>
+  <si>
+    <t>IDM COCONUT WTR 250</t>
+  </si>
+  <si>
+    <t>20128561</t>
+  </si>
+  <si>
+    <t>IDM CCNT WTR ORGE250</t>
+  </si>
+  <si>
+    <t>20009737</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK ORG140</t>
+  </si>
+  <si>
+    <t>10039897</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK LMN140</t>
+  </si>
+  <si>
+    <t>20115636</t>
+  </si>
+  <si>
+    <t>YOU C1000 DRK MGO140</t>
+  </si>
+  <si>
     <t>20002504</t>
   </si>
   <si>
     <t>ADEM SARI BOX 5'S</t>
-  </si>
-  <si>
-    <t>10003389</t>
-  </si>
-  <si>
-    <t>KIRANTI SEHAT BLN150</t>
-  </si>
-  <si>
-    <t>20029054</t>
-  </si>
-  <si>
-    <t>KIRANTI JUICE 150ML</t>
-  </si>
-  <si>
-    <t>20137228</t>
-  </si>
-  <si>
-    <t>KIRANTI LYCHEE 150ML</t>
-  </si>
-  <si>
-    <t>20137229</t>
-  </si>
-  <si>
-    <t>KIRANTI BERRY 150ML</t>
-  </si>
-  <si>
-    <t>20125638</t>
-  </si>
-  <si>
-    <t>NTRSARI JRK PRS 10'S</t>
-  </si>
-  <si>
-    <t>20113377</t>
-  </si>
-  <si>
-    <t>FLRDINA COCO BIT 350</t>
-  </si>
-  <si>
-    <t>20043877</t>
-  </si>
-  <si>
-    <t>FLORIDINA ORANGE 350</t>
-  </si>
-  <si>
-    <t>20141101</t>
-  </si>
-  <si>
-    <t>IDM AIR MNM BTL 4+2</t>
-  </si>
-  <si>
-    <t>,(E-1B)</t>
-  </si>
-  <si>
-    <t>20026226</t>
-  </si>
-  <si>
-    <t>ULTRA TEH KOTAK 500</t>
-  </si>
-  <si>
-    <t>10036640</t>
-  </si>
-  <si>
-    <t>TEH KOTAK JASMINE300</t>
-  </si>
-  <si>
-    <t>20048435</t>
-  </si>
-  <si>
-    <t>TEH KOTAK LESS/S 300</t>
-  </si>
-  <si>
-    <t>20044334</t>
-  </si>
-  <si>
-    <t>SOSRO TEH BTL TPK300</t>
-  </si>
-  <si>
-    <t>10005128</t>
-  </si>
-  <si>
-    <t>SOSRO TEH KOTAK B250</t>
-  </si>
-  <si>
-    <t>20001119</t>
-  </si>
-  <si>
-    <t>SOSRO TEH KOTAK 4+2S</t>
-  </si>
-  <si>
-    <t>20114495</t>
-  </si>
-  <si>
-    <t>NESCAFE CPUCCINO 220</t>
-  </si>
-  <si>
-    <t>20114493</t>
-  </si>
-  <si>
-    <t>NESCAFE LATTE 220ML</t>
-  </si>
-  <si>
-    <t>20121456</t>
-  </si>
-  <si>
-    <t>NSCAFE ICE BLACK 220</t>
-  </si>
-  <si>
-    <t>20123322</t>
-  </si>
-  <si>
-    <t>GOLDA CAPPUCCINO 200</t>
-  </si>
-  <si>
-    <t>20087542</t>
-  </si>
-  <si>
-    <t>GOLDA COFF.DOLCE 200</t>
-  </si>
-  <si>
-    <t>20102789</t>
-  </si>
-  <si>
-    <t>ABC CHOCMLT COFF 200</t>
-  </si>
-  <si>
-    <t>20102790</t>
-  </si>
-  <si>
-    <t>ABC MILK COFFEE 200</t>
-  </si>
-  <si>
-    <t>20036157</t>
-  </si>
-  <si>
-    <t>SOSRO TEH BOTOL 450</t>
-  </si>
-  <si>
-    <t>20037565</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH MLATI500</t>
-  </si>
-  <si>
-    <t>20048155</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH L/SGR350</t>
-  </si>
-  <si>
-    <t>20035484</t>
-  </si>
-  <si>
-    <t>PUCUK/H TEH MLATI350</t>
-  </si>
-  <si>
-    <t>20072249</t>
-  </si>
-  <si>
-    <t>SOSRO TEH BOTOL 350</t>
-  </si>
-  <si>
-    <t>20066455</t>
-  </si>
-  <si>
-    <t>FRUIT TEA APPLE 350</t>
-  </si>
-  <si>
-    <t>20066454</t>
-  </si>
-  <si>
-    <t>FRUIT TEA BLCKCR 350</t>
-  </si>
-  <si>
-    <t>20073495</t>
-  </si>
-  <si>
-    <t>FRUIT TEA FREEZE 350</t>
-  </si>
-  <si>
-    <t>20130354</t>
-  </si>
-  <si>
-    <t>LARISST JSMN TEA 350</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20060210</t>
-  </si>
-  <si>
-    <t>IDM TEH HJAU MLT 330</t>
-  </si>
-  <si>
-    <t>20077509</t>
-  </si>
-  <si>
-    <t>IDM LEMON TEA 330ML</t>
-  </si>
-  <si>
-    <t>20101897</t>
-  </si>
-  <si>
-    <t>IDM TEH APEL 350ML</t>
-  </si>
-  <si>
-    <t>20015838</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 350ML</t>
-  </si>
-  <si>
-    <t>20009722</t>
-  </si>
-  <si>
-    <t>POCARI SWEAT 500ML</t>
-  </si>
-  <si>
-    <t>20019674</t>
-  </si>
-  <si>
-    <t>YOU C1000 ORG WTR500</t>
-  </si>
-  <si>
-    <t>20019673</t>
-  </si>
-  <si>
-    <t>YOU C1000 LMN WTR500</t>
-  </si>
-  <si>
-    <t>20127835</t>
-  </si>
-  <si>
-    <t>ALANG SARI JN 300ML</t>
-  </si>
-  <si>
-    <t>20053540</t>
-  </si>
-  <si>
-    <t>ADEM SARI CK BTL 350</t>
-  </si>
-  <si>
-    <t>20057867</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 500ML</t>
-  </si>
-  <si>
-    <t>20018435</t>
-  </si>
-  <si>
-    <t>HYDRO COCO 250ML</t>
-  </si>
-  <si>
-    <t>20115548</t>
-  </si>
-  <si>
-    <t>IDM COCONUT WTR 250</t>
-  </si>
-  <si>
-    <t>20128561</t>
-  </si>
-  <si>
-    <t>IDM CCNT WTR ORGE250</t>
-  </si>
-  <si>
-    <t>20009737</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK ORG140</t>
-  </si>
-  <si>
-    <t>10039897</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK LMN140</t>
-  </si>
-  <si>
-    <t>20115636</t>
-  </si>
-  <si>
-    <t>YOU C1000 DRK MGO140</t>
   </si>
   <si>
     <t>20121348</t>
@@ -1615,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F187"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2696,10 +2702,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
@@ -2719,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -2739,7 +2745,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -2759,7 +2765,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
@@ -2779,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -2799,7 +2805,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -2819,7 +2825,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -2839,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>34</v>
@@ -2859,7 +2865,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>34</v>
@@ -2879,7 +2885,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>34</v>
@@ -2899,7 +2905,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
@@ -2919,7 +2925,7 @@
         <v>21</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
@@ -2939,7 +2945,7 @@
         <v>21</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>34</v>
@@ -2956,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>34</v>
@@ -2979,7 +2985,7 @@
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>34</v>
@@ -2999,7 +3005,7 @@
         <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
@@ -3019,7 +3025,7 @@
         <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>34</v>
@@ -3039,7 +3045,7 @@
         <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>34</v>
@@ -3059,7 +3065,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>34</v>
@@ -3079,7 +3085,7 @@
         <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
@@ -3099,7 +3105,7 @@
         <v>24</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
@@ -3119,7 +3125,7 @@
         <v>24</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
@@ -3139,7 +3145,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>34</v>
@@ -3156,10 +3162,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>34</v>
@@ -3179,7 +3185,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>34</v>
@@ -3199,7 +3205,7 @@
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
@@ -3219,7 +3225,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>34</v>
@@ -3239,7 +3245,7 @@
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>34</v>
@@ -3259,7 +3265,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>34</v>
@@ -3279,7 +3285,7 @@
         <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>34</v>
@@ -3299,7 +3305,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>34</v>
@@ -3319,7 +3325,7 @@
         <v>27</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>34</v>
@@ -3336,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>34</v>
@@ -3359,10 +3365,10 @@
         <v>30</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3379,10 +3385,10 @@
         <v>30</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3399,7 +3405,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>34</v>
@@ -3419,7 +3425,7 @@
         <v>30</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>34</v>
@@ -3439,10 +3445,10 @@
         <v>30</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3459,10 +3465,10 @@
         <v>30</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,13 +3482,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,10 +3505,10 @@
         <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,10 +3525,10 @@
         <v>33</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,7 +3545,7 @@
         <v>33</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>34</v>
@@ -3559,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>34</v>
@@ -3579,7 +3585,7 @@
         <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>34</v>
@@ -3599,7 +3605,7 @@
         <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>34</v>
@@ -3619,7 +3625,7 @@
         <v>33</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>34</v>
@@ -3639,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>34</v>
@@ -3659,7 +3665,7 @@
         <v>33</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>34</v>
@@ -3679,7 +3685,7 @@
         <v>33</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>34</v>
@@ -3699,7 +3705,7 @@
         <v>33</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>34</v>
@@ -3719,7 +3725,7 @@
         <v>33</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>230</v>
@@ -4496,13 +4502,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F144" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4519,10 +4525,10 @@
         <v>103</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,7 +4545,7 @@
         <v>103</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>34</v>
@@ -4559,10 +4565,10 @@
         <v>103</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4579,7 +4585,7 @@
         <v>103</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>12</v>
@@ -4599,7 +4605,7 @@
         <v>103</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>12</v>
@@ -4619,7 +4625,7 @@
         <v>103</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>12</v>
@@ -4639,10 +4645,10 @@
         <v>103</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4659,7 +4665,7 @@
         <v>103</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4679,7 +4685,7 @@
         <v>103</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4699,7 +4705,7 @@
         <v>103</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4719,7 +4725,7 @@
         <v>103</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4739,10 +4745,10 @@
         <v>103</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,30 +4765,30 @@
         <v>103</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>336</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,7 +4805,7 @@
         <v>106</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>34</v>
@@ -4819,7 +4825,7 @@
         <v>106</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>34</v>
@@ -4839,7 +4845,7 @@
         <v>106</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>34</v>
@@ -4859,10 +4865,10 @@
         <v>106</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,7 +4885,7 @@
         <v>106</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>12</v>
@@ -4899,10 +4905,10 @@
         <v>106</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4919,7 +4925,7 @@
         <v>106</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -4936,33 +4942,33 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="E167" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,10 +4982,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>34</v>
@@ -4996,10 +5002,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>34</v>
@@ -5016,13 +5022,13 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5036,33 +5042,33 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E172" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5076,93 +5082,93 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>371</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,10 +5182,10 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>34</v>
@@ -5196,10 +5202,10 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>34</v>
@@ -5216,13 +5222,13 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5236,73 +5242,73 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="E182" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,13 +5322,13 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5336,12 +5342,32 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F187" s="1" t="s">
         <v>119</v>
       </c>
     </row>

--- a/BEV03S.xlsx
+++ b/BEV03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="398">
   <si>
     <t/>
   </si>
@@ -268,12 +268,6 @@
     <t>PDIASRE UHT VNILA100</t>
   </si>
   <si>
-    <t>20134337</t>
-  </si>
-  <si>
-    <t>PDIASRE UHT CKLAT100</t>
-  </si>
-  <si>
     <t>20046862</t>
   </si>
   <si>
@@ -304,12 +298,6 @@
     <t>F/FLAG CHOCO TPK 110</t>
   </si>
   <si>
-    <t>10034798</t>
-  </si>
-  <si>
-    <t>F/FLAG STRAW TPK 110</t>
-  </si>
-  <si>
     <t>20096322</t>
   </si>
   <si>
@@ -350,18 +338,6 @@
   </si>
   <si>
     <t>OATSDE STR BR.BLN200</t>
-  </si>
-  <si>
-    <t>20133859</t>
-  </si>
-  <si>
-    <t>OATSIDE CHCOMALT200</t>
-  </si>
-  <si>
-    <t>20134556</t>
-  </si>
-  <si>
-    <t>OATSIDE MOCHA 200</t>
   </si>
   <si>
     <t>20087290</t>
@@ -1621,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F183"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2325,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>34</v>
@@ -2345,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -2365,7 +2341,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>34</v>
@@ -2385,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
@@ -2405,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
@@ -2425,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
@@ -2445,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
@@ -2453,10 +2429,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2465,27 +2441,27 @@
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>34</v>
@@ -2493,22 +2469,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2525,7 +2501,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -2545,18 +2521,18 @@
         <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2565,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -2573,10 +2549,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2585,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -2593,10 +2569,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2605,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -2613,10 +2589,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2625,10 +2601,10 @@
         <v>18</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2642,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -2662,10 +2638,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -2682,10 +2658,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -2702,10 +2678,10 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
@@ -2725,7 +2701,7 @@
         <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -2745,7 +2721,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -2765,7 +2741,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
@@ -2785,7 +2761,7 @@
         <v>21</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -2805,7 +2781,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -2825,7 +2801,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -2845,7 +2821,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>34</v>
@@ -2865,7 +2841,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>34</v>
@@ -2885,7 +2861,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>34</v>
@@ -2902,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
@@ -2922,10 +2898,10 @@
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
@@ -2942,10 +2918,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>34</v>
@@ -2962,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>34</v>
@@ -2985,7 +2961,7 @@
         <v>24</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>34</v>
@@ -3005,7 +2981,7 @@
         <v>24</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
@@ -3025,7 +3001,7 @@
         <v>24</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>34</v>
@@ -3045,7 +3021,7 @@
         <v>24</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>34</v>
@@ -3065,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>34</v>
@@ -3085,7 +3061,7 @@
         <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
@@ -3102,10 +3078,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
@@ -3122,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
@@ -3142,10 +3118,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>34</v>
@@ -3162,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>34</v>
@@ -3185,7 +3161,7 @@
         <v>27</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>34</v>
@@ -3205,7 +3181,7 @@
         <v>27</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
@@ -3225,7 +3201,7 @@
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>34</v>
@@ -3245,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>34</v>
@@ -3265,7 +3241,7 @@
         <v>27</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>34</v>
@@ -3282,10 +3258,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>34</v>
@@ -3302,13 +3278,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3322,10 +3298,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>34</v>
@@ -3342,10 +3318,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>34</v>
@@ -3365,7 +3341,7 @@
         <v>30</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>34</v>
@@ -3385,10 +3361,10 @@
         <v>30</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>34</v>
@@ -3422,13 +3398,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3442,13 +3418,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3462,13 +3438,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,10 +3458,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>34</v>
@@ -3505,10 +3481,10 @@
         <v>33</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,10 +3501,10 @@
         <v>33</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,7 +3521,7 @@
         <v>33</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>34</v>
@@ -3565,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>34</v>
@@ -3585,7 +3561,7 @@
         <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>34</v>
@@ -3605,7 +3581,7 @@
         <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>34</v>
@@ -3625,7 +3601,7 @@
         <v>33</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>34</v>
@@ -3645,27 +3621,27 @@
         <v>33</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>34</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>34</v>
@@ -3673,19 +3649,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>34</v>
@@ -3693,19 +3669,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>34</v>
@@ -3713,22 +3689,22 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>230</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,7 +3721,7 @@
         <v>37</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>34</v>
@@ -3765,7 +3741,7 @@
         <v>37</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>34</v>
@@ -3785,10 +3761,10 @@
         <v>37</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3805,10 +3781,10 @@
         <v>37</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,10 +3801,10 @@
         <v>37</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3845,7 +3821,7 @@
         <v>37</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>34</v>
@@ -3865,10 +3841,10 @@
         <v>37</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3885,10 +3861,10 @@
         <v>37</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3905,10 +3881,10 @@
         <v>37</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>34</v>
@@ -3942,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>34</v>
@@ -3962,13 +3938,13 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3982,13 +3958,13 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,7 +3981,7 @@
         <v>70</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>34</v>
@@ -4025,7 +4001,7 @@
         <v>70</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>34</v>
@@ -4045,7 +4021,7 @@
         <v>70</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>34</v>
@@ -4065,7 +4041,7 @@
         <v>70</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>34</v>
@@ -4085,18 +4061,18 @@
         <v>70</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -4105,18 +4081,18 @@
         <v>70</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -4125,18 +4101,18 @@
         <v>70</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -4145,30 +4121,30 @@
         <v>70</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,13 +4158,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4202,13 +4178,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,13 +4198,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,10 +4221,10 @@
         <v>73</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,10 +4241,10 @@
         <v>73</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,10 +4261,10 @@
         <v>73</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,10 +4281,10 @@
         <v>73</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,10 +4301,10 @@
         <v>73</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,10 +4321,10 @@
         <v>73</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,10 +4341,10 @@
         <v>73</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,10 +4361,10 @@
         <v>73</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,10 +4381,10 @@
         <v>73</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,10 +4401,10 @@
         <v>73</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,13 +4418,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4462,10 +4438,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>34</v>
@@ -4482,10 +4458,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>34</v>
@@ -4502,13 +4478,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4522,13 +4498,13 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4542,13 +4518,13 @@
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4562,13 +4538,13 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4582,13 +4558,13 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4602,13 +4578,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,13 +4598,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,13 +4618,13 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4662,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4682,13 +4658,13 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4702,93 +4678,93 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>338</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4802,13 +4778,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4822,13 +4798,13 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,13 +4818,13 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,13 +4838,13 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4882,93 +4858,93 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4982,30 +4958,30 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E169" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>34</v>
@@ -5013,56 +4989,56 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>34</v>
+        <v>365</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>4</v>
@@ -5073,59 +5049,59 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>34</v>
+        <v>365</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E175" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>34</v>
@@ -5133,42 +5109,42 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>373</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5182,193 +5158,113 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>34</v>
+        <v>388</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>34</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>119</v>
+        <v>391</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
